--- a/big-data/big-data-capstone/project/data/beer_n_Kabrew Kumiho India Pale Ale.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Kabrew Kumiho India Pale Ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,77 +567,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BubbleTicks26(358)
-🇦🇺Newcastle, Australia
-3.7June 13, 2022
-Poured from a can into a shaker.  Piney, resinous aroma. Pours a dark amber with a very large off white head that holds well.  Very pleasantly surprised with the flavours.  Good body and…
-Show more
-CAN
-Aroma
-7
-Appearance
-3
-Flavor
-8
-Mouthfeel
-3
-Overall
-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>75 IBU</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>189 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>HighSparkDiesel(687)
 🇹🇼Taipei City, Taiwan
 2.4June 24, 2021
@@ -655,128 +584,58 @@
 8</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Kabrew Kumiho India Pale Ale</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Kabrew Kumiho India Pale Ale</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>IPA</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>6.3%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>75 IBU</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>189 cal per 355ml</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HighSparkDiesel(687)
-🇹🇼Taipei City, Taiwan
-2.4June 24, 2021
-A large can from Jason's near NCCU. Aroma: grapefruit, floral notes. Appearance: opaque dark amber, generous bubbly head with a pinkish tinge. Palate: medium-bodied and oily, fizzy…
-Show more
-Aroma
-5
-Appearance
-3
-Flavor
-5
-Mouthfeel
-3
-Overall
-8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>75 IBU</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>189 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>GoufCustom(3,017)
 🇭🇰Hong Kong
@@ -797,120 +656,48 @@
 13</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Kabrew Kumiho India Pale Ale</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Kabrew Kumiho India Pale Ale</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Kabrew</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>IPA</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>6.3%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>75 IBU</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>189 cal per 355ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GoufCustom(3,017)
-🇭🇰Hong Kong
-3.3April 13, 2021
-500ml can bought at K-Mart Korean Food in Sham Shui Po. 
-Looks: Translucent orange honey with trace of misty yeast…
-Show more
-CAN
-Aroma
-7
-Appearance
-3
-Flavor
-7
-Mouthfeel
-3
-Overall
-13</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kabrew Kumiho India Pale Ale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Kabrew</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>🇰🇷 Gapyeong-gun, Gyeonggi-do, South Korea</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>6.3%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>75 IBU</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>189 cal per 355ml</t>
         </is>
